--- a/data/men/M_2019_11_Pisek.xlsx
+++ b/data/men/M_2019_11_Pisek.xlsx
@@ -8,25 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\data\men\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90A3798-5887-4B00-9BA7-F849CAA0A36E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1874519-EF35-4532-A5AD-8E6AEA079E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="816" yWindow="-15360" windowWidth="20832" windowHeight="14424" tabRatio="815" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="-11580" windowWidth="25488" windowHeight="10380" tabRatio="815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="initiation" sheetId="1" r:id="rId1"/>
-    <sheet name="first_round" sheetId="2" r:id="rId2"/>
-    <sheet name="total_rank" sheetId="3" r:id="rId3"/>
-    <sheet name="pools" sheetId="4" r:id="rId4"/>
-    <sheet name="eliminations" sheetId="5" r:id="rId5"/>
+    <sheet name="total" sheetId="6" r:id="rId1"/>
+    <sheet name="initiation" sheetId="1" r:id="rId2"/>
+    <sheet name="first_round" sheetId="2" r:id="rId3"/>
+    <sheet name="total_rank" sheetId="3" r:id="rId4"/>
+    <sheet name="pools" sheetId="4" r:id="rId5"/>
+    <sheet name="eliminations" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">eliminations!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">first_round!$A$1:$M$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">initiation!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">pools!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">total_rank!$A$1:$H$1</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">first_round!#REF!</definedName>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">initiation!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">eliminations!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">first_round!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">initiation!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">pools!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">total!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">total_rank!$A$1:$H$1</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">first_round!#REF!</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">initiation!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5487" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5894" uniqueCount="126">
   <si>
     <t>Name</t>
   </si>
@@ -425,6 +427,9 @@
   <si>
     <t>Eliminace_2</t>
   </si>
+  <si>
+    <t>Percentil</t>
+  </si>
 </sst>
 </file>
 
@@ -510,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -560,6 +565,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,11 +845,3657 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10C7D3D-4D54-4F27-9A7F-0832BE065384}">
+  <dimension ref="A1:Q97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="13">
+        <v>28313</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="K2" s="12">
+        <v>26</v>
+      </c>
+      <c r="L2">
+        <v>25</v>
+      </c>
+      <c r="M2" s="12">
+        <v>1</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2">
+        <v>36</v>
+      </c>
+      <c r="P2" s="12">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="29">
+        <f>P2/MAX($P$2:$P$66)</f>
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="13">
+        <v>36099</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3" s="12">
+        <v>1</v>
+      </c>
+      <c r="K3" s="12">
+        <v>35</v>
+      </c>
+      <c r="L3">
+        <v>20</v>
+      </c>
+      <c r="M3" s="12">
+        <v>15</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="29">
+        <f t="shared" ref="Q3:Q66" si="0">P3/MAX($P$2:$P$66)</f>
+        <v>4.6153846153846156E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="13">
+        <v>37753</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="K4" s="12">
+        <v>21</v>
+      </c>
+      <c r="L4">
+        <v>32</v>
+      </c>
+      <c r="M4" s="12">
+        <v>-11</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4">
+        <v>52</v>
+      </c>
+      <c r="P4" s="12">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="29">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="13">
+        <v>35185</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="K5" s="12">
+        <v>26</v>
+      </c>
+      <c r="L5">
+        <v>24</v>
+      </c>
+      <c r="M5" s="12">
+        <v>2</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5">
+        <v>27</v>
+      </c>
+      <c r="P5" s="12">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="29">
+        <f t="shared" si="0"/>
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="13">
+        <v>37031</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="K6" s="12">
+        <v>37</v>
+      </c>
+      <c r="L6">
+        <v>26</v>
+      </c>
+      <c r="M6" s="12">
+        <v>11</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6">
+        <v>9</v>
+      </c>
+      <c r="P6" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="29">
+        <f t="shared" si="0"/>
+        <v>3.0769230769230771E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="13">
+        <v>28223</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="K7" s="12">
+        <v>24</v>
+      </c>
+      <c r="L7">
+        <v>31</v>
+      </c>
+      <c r="M7" s="12">
+        <v>-7</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7">
+        <v>43</v>
+      </c>
+      <c r="P7" s="12">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="29">
+        <f t="shared" si="0"/>
+        <v>0.72307692307692306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="13">
+        <v>30117</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="K8" s="12">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>31</v>
+      </c>
+      <c r="M8" s="12">
+        <v>-11</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8">
+        <v>53</v>
+      </c>
+      <c r="P8" s="12">
+        <v>53</v>
+      </c>
+      <c r="Q8" s="29">
+        <f t="shared" si="0"/>
+        <v>0.81538461538461537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13">
+        <v>33595</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9" s="12">
+        <v>1</v>
+      </c>
+      <c r="K9" s="12">
+        <v>34</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9" s="12">
+        <v>24</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="29">
+        <f t="shared" si="0"/>
+        <v>1.5384615384615385E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="13">
+        <v>35542</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="K10" s="12">
+        <v>33</v>
+      </c>
+      <c r="L10">
+        <v>19</v>
+      </c>
+      <c r="M10" s="12">
+        <v>14</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10" s="12">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="29">
+        <f t="shared" si="0"/>
+        <v>0.13846153846153847</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13">
+        <v>32654</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11" s="12">
+        <v>1</v>
+      </c>
+      <c r="K11" s="12">
+        <v>40</v>
+      </c>
+      <c r="L11">
+        <v>22</v>
+      </c>
+      <c r="M11" s="12">
+        <v>18</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11" s="12">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="29">
+        <f t="shared" si="0"/>
+        <v>0.26153846153846155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13">
+        <v>34315</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="K12" s="12">
+        <v>34</v>
+      </c>
+      <c r="L12">
+        <v>15</v>
+      </c>
+      <c r="M12" s="12">
+        <v>19</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12">
+        <v>6</v>
+      </c>
+      <c r="P12" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="29">
+        <f t="shared" si="0"/>
+        <v>4.6153846153846156E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="13">
+        <v>34757</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="K13" s="12">
+        <v>13</v>
+      </c>
+      <c r="L13">
+        <v>33</v>
+      </c>
+      <c r="M13" s="12">
+        <v>-20</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13">
+        <v>61</v>
+      </c>
+      <c r="P13" s="12">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="29">
+        <f t="shared" si="0"/>
+        <v>0.93846153846153846</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="13">
+        <v>36046</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="K14" s="12">
+        <v>27</v>
+      </c>
+      <c r="L14">
+        <v>26</v>
+      </c>
+      <c r="M14" s="12">
+        <v>1</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14">
+        <v>20</v>
+      </c>
+      <c r="P14" s="12">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="29">
+        <f t="shared" si="0"/>
+        <v>0.33846153846153848</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="13">
+        <v>37694</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="K15" s="12">
+        <v>24</v>
+      </c>
+      <c r="L15">
+        <v>26</v>
+      </c>
+      <c r="M15" s="12">
+        <v>-2</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15">
+        <v>32</v>
+      </c>
+      <c r="P15" s="12">
+        <v>28</v>
+      </c>
+      <c r="Q15" s="29">
+        <f t="shared" si="0"/>
+        <v>0.43076923076923079</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="1">
+        <v>33239</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
+      <c r="K16" s="12">
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <v>35</v>
+      </c>
+      <c r="M16">
+        <v>-25</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16">
+        <v>64</v>
+      </c>
+      <c r="P16">
+        <v>64</v>
+      </c>
+      <c r="Q16" s="29">
+        <f t="shared" si="0"/>
+        <v>0.98461538461538467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="13">
+        <v>33673</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="J17" s="12">
+        <v>1</v>
+      </c>
+      <c r="K17" s="12">
+        <v>35</v>
+      </c>
+      <c r="L17">
+        <v>18</v>
+      </c>
+      <c r="M17" s="12">
+        <v>17</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17" s="12">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="29">
+        <f t="shared" si="0"/>
+        <v>0.27692307692307694</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="13">
+        <v>31104</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="K18" s="12">
+        <v>17</v>
+      </c>
+      <c r="L18">
+        <v>29</v>
+      </c>
+      <c r="M18" s="12">
+        <v>-12</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18">
+        <v>54</v>
+      </c>
+      <c r="P18" s="12">
+        <v>54</v>
+      </c>
+      <c r="Q18" s="29">
+        <f t="shared" si="0"/>
+        <v>0.83076923076923082</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="13">
+        <v>21027</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="K19" s="12">
+        <v>24</v>
+      </c>
+      <c r="L19">
+        <v>27</v>
+      </c>
+      <c r="M19" s="12">
+        <v>-3</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19">
+        <v>39</v>
+      </c>
+      <c r="P19" s="12">
+        <v>44</v>
+      </c>
+      <c r="Q19" s="29">
+        <f t="shared" si="0"/>
+        <v>0.67692307692307696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="13">
+        <v>26426</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="K20" s="12">
+        <v>29</v>
+      </c>
+      <c r="L20">
+        <v>25</v>
+      </c>
+      <c r="M20" s="12">
+        <v>4</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O20">
+        <v>19</v>
+      </c>
+      <c r="P20" s="12">
+        <v>21</v>
+      </c>
+      <c r="Q20" s="29">
+        <f t="shared" si="0"/>
+        <v>0.32307692307692309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="13">
+        <v>24801</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="K21" s="12">
+        <v>24</v>
+      </c>
+      <c r="L21">
+        <v>34</v>
+      </c>
+      <c r="M21" s="12">
+        <v>-10</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21">
+        <v>56</v>
+      </c>
+      <c r="P21" s="12">
+        <v>56</v>
+      </c>
+      <c r="Q21" s="29">
+        <f t="shared" si="0"/>
+        <v>0.86153846153846159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="13">
+        <v>26996</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="K22" s="12">
+        <v>27</v>
+      </c>
+      <c r="L22">
+        <v>26</v>
+      </c>
+      <c r="M22" s="12">
+        <v>1</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O22">
+        <v>30</v>
+      </c>
+      <c r="P22" s="12">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="29">
+        <f t="shared" si="0"/>
+        <v>0.2153846153846154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="13">
+        <v>37050</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="K23" s="12">
+        <v>30</v>
+      </c>
+      <c r="L23">
+        <v>30</v>
+      </c>
+      <c r="M23" s="12">
+        <v>0</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O23">
+        <v>46</v>
+      </c>
+      <c r="P23" s="12">
+        <v>49</v>
+      </c>
+      <c r="Q23" s="29">
+        <f t="shared" si="0"/>
+        <v>0.75384615384615383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="13">
+        <v>36441</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24" s="12">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="K24" s="12">
+        <v>33</v>
+      </c>
+      <c r="L24">
+        <v>24</v>
+      </c>
+      <c r="M24" s="12">
+        <v>9</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O24">
+        <v>15</v>
+      </c>
+      <c r="P24" s="12">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="29">
+        <f t="shared" si="0"/>
+        <v>0.18461538461538463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="13">
+        <v>29600</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25" s="12">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="K25" s="12">
+        <v>26</v>
+      </c>
+      <c r="L25">
+        <v>31</v>
+      </c>
+      <c r="M25" s="12">
+        <v>-5</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O25">
+        <v>42</v>
+      </c>
+      <c r="P25" s="12">
+        <v>46</v>
+      </c>
+      <c r="Q25" s="29">
+        <f t="shared" si="0"/>
+        <v>0.70769230769230773</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="13">
+        <v>30843</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="K26" s="12">
+        <v>31</v>
+      </c>
+      <c r="L26">
+        <v>28</v>
+      </c>
+      <c r="M26" s="12">
+        <v>3</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O26">
+        <v>34</v>
+      </c>
+      <c r="P26" s="12">
+        <v>40</v>
+      </c>
+      <c r="Q26" s="29">
+        <f t="shared" si="0"/>
+        <v>0.61538461538461542</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="13">
+        <v>25022</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="K27" s="12">
+        <v>26</v>
+      </c>
+      <c r="L27">
+        <v>24</v>
+      </c>
+      <c r="M27" s="12">
+        <v>2</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O27">
+        <v>27</v>
+      </c>
+      <c r="P27" s="12">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="29">
+        <f t="shared" si="0"/>
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="13">
+        <v>37523</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28" s="12">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="K28" s="12">
+        <v>33</v>
+      </c>
+      <c r="L28">
+        <v>23</v>
+      </c>
+      <c r="M28" s="12">
+        <v>10</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O28">
+        <v>14</v>
+      </c>
+      <c r="P28" s="12">
+        <v>7</v>
+      </c>
+      <c r="Q28" s="29">
+        <f t="shared" si="0"/>
+        <v>0.1076923076923077</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="13">
+        <v>37388</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29" s="12">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="K29" s="12">
+        <v>26</v>
+      </c>
+      <c r="L29">
+        <v>32</v>
+      </c>
+      <c r="M29" s="12">
+        <v>-6</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O29">
+        <v>47</v>
+      </c>
+      <c r="P29" s="12">
+        <v>31</v>
+      </c>
+      <c r="Q29" s="29">
+        <f t="shared" si="0"/>
+        <v>0.47692307692307695</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="13">
+        <v>37622</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="K30" s="12">
+        <v>28</v>
+      </c>
+      <c r="L30">
+        <v>35</v>
+      </c>
+      <c r="M30" s="12">
+        <v>-7</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O30">
+        <v>45</v>
+      </c>
+      <c r="P30" s="12">
+        <v>48</v>
+      </c>
+      <c r="Q30" s="29">
+        <f t="shared" si="0"/>
+        <v>0.7384615384615385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="13">
+        <v>36324</v>
+      </c>
+      <c r="I31">
+        <v>7</v>
+      </c>
+      <c r="J31" s="12">
+        <v>1</v>
+      </c>
+      <c r="K31" s="12">
+        <v>35</v>
+      </c>
+      <c r="L31">
+        <v>11</v>
+      </c>
+      <c r="M31" s="12">
+        <v>24</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="29">
+        <f t="shared" si="0"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="13">
+        <v>35450</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="J32" s="12">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="K32" s="12">
+        <v>27</v>
+      </c>
+      <c r="L32">
+        <v>16</v>
+      </c>
+      <c r="M32" s="12">
+        <v>11</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O32">
+        <v>13</v>
+      </c>
+      <c r="P32" s="12">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="29">
+        <f t="shared" si="0"/>
+        <v>9.2307692307692313E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="13">
+        <v>33970</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="K33" s="12">
+        <v>28</v>
+      </c>
+      <c r="L33">
+        <v>34</v>
+      </c>
+      <c r="M33" s="12">
+        <v>-6</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O33">
+        <v>44</v>
+      </c>
+      <c r="P33" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q33" s="29">
+        <f t="shared" si="0"/>
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="13">
+        <v>37683</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34" s="12">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="K34" s="12">
+        <v>30</v>
+      </c>
+      <c r="L34">
+        <v>22</v>
+      </c>
+      <c r="M34" s="12">
+        <v>8</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O34">
+        <v>23</v>
+      </c>
+      <c r="P34" s="12">
+        <v>8</v>
+      </c>
+      <c r="Q34" s="29">
+        <f t="shared" si="0"/>
+        <v>0.12307692307692308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="13">
+        <v>33414</v>
+      </c>
+      <c r="I35">
+        <v>6</v>
+      </c>
+      <c r="J35" s="12">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="K35" s="12">
+        <v>32</v>
+      </c>
+      <c r="L35">
+        <v>22</v>
+      </c>
+      <c r="M35" s="12">
+        <v>10</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O35">
+        <v>8</v>
+      </c>
+      <c r="P35" s="12">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="29">
+        <f t="shared" si="0"/>
+        <v>0.15384615384615385</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="13">
+        <v>28784</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36" s="12">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="K36" s="12">
+        <v>29</v>
+      </c>
+      <c r="L36">
+        <v>23</v>
+      </c>
+      <c r="M36" s="12">
+        <v>6</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O36">
+        <v>17</v>
+      </c>
+      <c r="P36" s="12">
+        <v>34</v>
+      </c>
+      <c r="Q36" s="29">
+        <f t="shared" si="0"/>
+        <v>0.52307692307692311</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="13">
+        <v>31158</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+      <c r="J37" s="12">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="K37" s="12">
+        <v>32</v>
+      </c>
+      <c r="L37">
+        <v>21</v>
+      </c>
+      <c r="M37" s="12">
+        <v>11</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O37">
+        <v>11</v>
+      </c>
+      <c r="P37" s="12">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="29">
+        <f t="shared" si="0"/>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="13">
+        <v>30053</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" s="12">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="K38" s="12">
+        <v>27</v>
+      </c>
+      <c r="L38">
+        <v>32</v>
+      </c>
+      <c r="M38" s="12">
+        <v>-5</v>
+      </c>
+      <c r="N38" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O38">
+        <v>57</v>
+      </c>
+      <c r="P38" s="12">
+        <v>57</v>
+      </c>
+      <c r="Q38" s="29">
+        <f t="shared" si="0"/>
+        <v>0.87692307692307692</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="13">
+        <v>32982</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39" s="12">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="K39" s="12">
+        <v>31</v>
+      </c>
+      <c r="L39">
+        <v>24</v>
+      </c>
+      <c r="M39" s="12">
+        <v>7</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O39">
+        <v>16</v>
+      </c>
+      <c r="P39" s="12">
+        <v>33</v>
+      </c>
+      <c r="Q39" s="29">
+        <f t="shared" si="0"/>
+        <v>0.50769230769230766</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="13">
+        <v>38353</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" s="12">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>7</v>
+      </c>
+      <c r="L40">
+        <v>35</v>
+      </c>
+      <c r="M40">
+        <v>-28</v>
+      </c>
+      <c r="N40" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O40">
+        <v>65</v>
+      </c>
+      <c r="P40">
+        <v>65</v>
+      </c>
+      <c r="Q40" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="13">
+        <v>34789</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41" s="12">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="K41" s="12">
+        <v>29</v>
+      </c>
+      <c r="L41">
+        <v>23</v>
+      </c>
+      <c r="M41" s="12">
+        <v>6</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O41">
+        <v>24</v>
+      </c>
+      <c r="P41" s="12">
+        <v>23</v>
+      </c>
+      <c r="Q41" s="29">
+        <f t="shared" si="0"/>
+        <v>0.35384615384615387</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="13">
+        <v>26808</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42" s="12">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="K42" s="12">
+        <v>28</v>
+      </c>
+      <c r="L42">
+        <v>27</v>
+      </c>
+      <c r="M42" s="12">
+        <v>1</v>
+      </c>
+      <c r="N42" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O42">
+        <v>35</v>
+      </c>
+      <c r="P42" s="12">
+        <v>41</v>
+      </c>
+      <c r="Q42" s="29">
+        <f t="shared" si="0"/>
+        <v>0.63076923076923075</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="14"/>
+      <c r="H43" s="13">
+        <v>18372</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" s="12">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="K43" s="12">
+        <v>14</v>
+      </c>
+      <c r="L43">
+        <v>33</v>
+      </c>
+      <c r="M43" s="12">
+        <v>-19</v>
+      </c>
+      <c r="N43" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O43">
+        <v>60</v>
+      </c>
+      <c r="P43" s="12">
+        <v>60</v>
+      </c>
+      <c r="Q43" s="29">
+        <f t="shared" si="0"/>
+        <v>0.92307692307692313</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="13">
+        <v>36047</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="K44" s="12">
+        <v>36</v>
+      </c>
+      <c r="L44">
+        <v>30</v>
+      </c>
+      <c r="M44" s="12">
+        <v>6</v>
+      </c>
+      <c r="N44" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O44">
+        <v>21</v>
+      </c>
+      <c r="P44" s="12">
+        <v>36</v>
+      </c>
+      <c r="Q44" s="29">
+        <f t="shared" si="0"/>
+        <v>0.55384615384615388</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B45" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="13">
+        <v>30881</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45" s="12">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="K45" s="12">
+        <v>23</v>
+      </c>
+      <c r="L45">
+        <v>27</v>
+      </c>
+      <c r="M45" s="12">
+        <v>-4</v>
+      </c>
+      <c r="N45" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O45">
+        <v>41</v>
+      </c>
+      <c r="P45" s="12">
+        <v>45</v>
+      </c>
+      <c r="Q45" s="29">
+        <f t="shared" si="0"/>
+        <v>0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B46" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="13">
+        <v>36950</v>
+      </c>
+      <c r="I46">
+        <v>6</v>
+      </c>
+      <c r="J46" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="K46" s="12">
+        <v>37</v>
+      </c>
+      <c r="L46">
+        <v>29</v>
+      </c>
+      <c r="M46" s="12">
+        <v>8</v>
+      </c>
+      <c r="N46" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O46">
+        <v>10</v>
+      </c>
+      <c r="P46" s="12">
+        <v>19</v>
+      </c>
+      <c r="Q46" s="29">
+        <f t="shared" si="0"/>
+        <v>0.29230769230769232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="13">
+        <v>34479</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47" s="12">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="K47" s="12">
+        <v>20</v>
+      </c>
+      <c r="L47">
+        <v>33</v>
+      </c>
+      <c r="M47" s="12">
+        <v>-13</v>
+      </c>
+      <c r="N47" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O47">
+        <v>58</v>
+      </c>
+      <c r="P47" s="12">
+        <v>58</v>
+      </c>
+      <c r="Q47" s="29">
+        <f t="shared" si="0"/>
+        <v>0.89230769230769236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B48" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="14"/>
+      <c r="H48" s="13">
+        <v>33420</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48" s="12">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="K48" s="12">
+        <v>26</v>
+      </c>
+      <c r="L48">
+        <v>26</v>
+      </c>
+      <c r="M48" s="12">
+        <v>0</v>
+      </c>
+      <c r="N48" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O48">
+        <v>31</v>
+      </c>
+      <c r="P48" s="12">
+        <v>27</v>
+      </c>
+      <c r="Q48" s="29">
+        <f t="shared" si="0"/>
+        <v>0.41538461538461541</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="14"/>
+      <c r="H49" s="1">
+        <v>34537</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49" s="12">
+        <v>0.125</v>
+      </c>
+      <c r="K49" s="12">
+        <v>29</v>
+      </c>
+      <c r="L49">
+        <v>39</v>
+      </c>
+      <c r="M49">
+        <v>-10</v>
+      </c>
+      <c r="N49" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O49">
+        <v>62</v>
+      </c>
+      <c r="P49">
+        <v>62</v>
+      </c>
+      <c r="Q49" s="29">
+        <f t="shared" si="0"/>
+        <v>0.9538461538461539</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B50" t="s">
+        <v>118</v>
+      </c>
+      <c r="C50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="14"/>
+      <c r="H50" s="13">
+        <v>27395</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50" s="12">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="K50" s="12">
+        <v>27</v>
+      </c>
+      <c r="L50">
+        <v>31</v>
+      </c>
+      <c r="M50" s="12">
+        <v>-4</v>
+      </c>
+      <c r="N50" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O50">
+        <v>40</v>
+      </c>
+      <c r="P50" s="12">
+        <v>29</v>
+      </c>
+      <c r="Q50" s="29">
+        <f t="shared" si="0"/>
+        <v>0.44615384615384618</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B51" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="14"/>
+      <c r="H51" s="13">
+        <v>36061</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51" s="12">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="K51" s="12">
+        <v>26</v>
+      </c>
+      <c r="L51">
+        <v>28</v>
+      </c>
+      <c r="M51" s="12">
+        <v>-2</v>
+      </c>
+      <c r="N51" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O51">
+        <v>37</v>
+      </c>
+      <c r="P51" s="12">
+        <v>42</v>
+      </c>
+      <c r="Q51" s="29">
+        <f t="shared" si="0"/>
+        <v>0.64615384615384619</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="14"/>
+      <c r="H52" s="13">
+        <v>37101</v>
+      </c>
+      <c r="I52">
+        <v>4</v>
+      </c>
+      <c r="J52" s="12">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="K52" s="12">
+        <v>31</v>
+      </c>
+      <c r="L52">
+        <v>30</v>
+      </c>
+      <c r="M52" s="12">
+        <v>1</v>
+      </c>
+      <c r="N52" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O52">
+        <v>29</v>
+      </c>
+      <c r="P52" s="12">
+        <v>38</v>
+      </c>
+      <c r="Q52" s="29">
+        <f t="shared" si="0"/>
+        <v>0.58461538461538465</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="14"/>
+      <c r="H53" s="13">
+        <v>30812</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53" s="12">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="K53" s="12">
+        <v>29</v>
+      </c>
+      <c r="L53">
+        <v>23</v>
+      </c>
+      <c r="M53" s="12">
+        <v>6</v>
+      </c>
+      <c r="N53" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O53">
+        <v>33</v>
+      </c>
+      <c r="P53" s="12">
+        <v>39</v>
+      </c>
+      <c r="Q53" s="29">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="14"/>
+      <c r="H54" s="13">
+        <v>36219</v>
+      </c>
+      <c r="I54">
+        <v>4</v>
+      </c>
+      <c r="J54" s="12">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="K54" s="12">
+        <v>31</v>
+      </c>
+      <c r="L54">
+        <v>18</v>
+      </c>
+      <c r="M54" s="12">
+        <v>13</v>
+      </c>
+      <c r="N54" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O54">
+        <v>22</v>
+      </c>
+      <c r="P54" s="12">
+        <v>13</v>
+      </c>
+      <c r="Q54" s="29">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="14"/>
+      <c r="H55" s="13">
+        <v>24473</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="J55" s="12">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="K55" s="12">
+        <v>25</v>
+      </c>
+      <c r="L55">
+        <v>28</v>
+      </c>
+      <c r="M55" s="12">
+        <v>-3</v>
+      </c>
+      <c r="N55" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O55">
+        <v>38</v>
+      </c>
+      <c r="P55" s="12">
+        <v>43</v>
+      </c>
+      <c r="Q55" s="29">
+        <f t="shared" si="0"/>
+        <v>0.66153846153846152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="14"/>
+      <c r="H56" s="13">
+        <v>36128</v>
+      </c>
+      <c r="I56">
+        <v>4</v>
+      </c>
+      <c r="J56" s="12">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="K56" s="12">
+        <v>31</v>
+      </c>
+      <c r="L56">
+        <v>28</v>
+      </c>
+      <c r="M56" s="12">
+        <v>3</v>
+      </c>
+      <c r="N56" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O56">
+        <v>25</v>
+      </c>
+      <c r="P56" s="12">
+        <v>37</v>
+      </c>
+      <c r="Q56" s="29">
+        <f t="shared" si="0"/>
+        <v>0.56923076923076921</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="14"/>
+      <c r="H57" s="13">
+        <v>34163</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57" s="12">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="K57" s="12">
+        <v>23</v>
+      </c>
+      <c r="L57">
+        <v>31</v>
+      </c>
+      <c r="M57" s="12">
+        <v>-8</v>
+      </c>
+      <c r="N57" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O57">
+        <v>50</v>
+      </c>
+      <c r="P57" s="12">
+        <v>50</v>
+      </c>
+      <c r="Q57" s="29">
+        <f t="shared" si="0"/>
+        <v>0.76923076923076927</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="14"/>
+      <c r="H58" s="13">
+        <v>27427</v>
+      </c>
+      <c r="I58">
+        <v>5</v>
+      </c>
+      <c r="J58" s="12">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="K58" s="12">
+        <v>32</v>
+      </c>
+      <c r="L58">
+        <v>21</v>
+      </c>
+      <c r="M58" s="12">
+        <v>11</v>
+      </c>
+      <c r="N58" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O58">
+        <v>11</v>
+      </c>
+      <c r="P58" s="12">
+        <v>11</v>
+      </c>
+      <c r="Q58" s="29">
+        <f t="shared" si="0"/>
+        <v>0.16923076923076924</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="14"/>
+      <c r="H59" s="13">
+        <v>37987</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="K59" s="12">
+        <v>26</v>
+      </c>
+      <c r="L59">
+        <v>36</v>
+      </c>
+      <c r="M59" s="12">
+        <v>-10</v>
+      </c>
+      <c r="N59" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O59">
+        <v>55</v>
+      </c>
+      <c r="P59" s="12">
+        <v>55</v>
+      </c>
+      <c r="Q59" s="29">
+        <f t="shared" si="0"/>
+        <v>0.84615384615384615</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="14"/>
+      <c r="H60" s="13">
+        <v>34058</v>
+      </c>
+      <c r="I60">
+        <v>4</v>
+      </c>
+      <c r="J60" s="12">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="K60" s="12">
+        <v>30</v>
+      </c>
+      <c r="L60">
+        <v>27</v>
+      </c>
+      <c r="M60" s="12">
+        <v>3</v>
+      </c>
+      <c r="N60" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O60">
+        <v>26</v>
+      </c>
+      <c r="P60" s="12">
+        <v>24</v>
+      </c>
+      <c r="Q60" s="29">
+        <f t="shared" si="0"/>
+        <v>0.36923076923076925</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B61" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" s="14"/>
+      <c r="H61" s="13">
+        <v>38353</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61" s="12">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="K61" s="12">
+        <v>16</v>
+      </c>
+      <c r="L61">
+        <v>31</v>
+      </c>
+      <c r="M61" s="12">
+        <v>-15</v>
+      </c>
+      <c r="N61" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O61">
+        <v>59</v>
+      </c>
+      <c r="P61" s="12">
+        <v>59</v>
+      </c>
+      <c r="Q61" s="29">
+        <f t="shared" si="0"/>
+        <v>0.90769230769230769</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="14"/>
+      <c r="H62" s="13">
+        <v>22885</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62" s="12">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="K62" s="12">
+        <v>19</v>
+      </c>
+      <c r="L62">
+        <v>29</v>
+      </c>
+      <c r="M62" s="12">
+        <v>-10</v>
+      </c>
+      <c r="N62" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O62">
+        <v>51</v>
+      </c>
+      <c r="P62" s="12">
+        <v>51</v>
+      </c>
+      <c r="Q62" s="29">
+        <f t="shared" si="0"/>
+        <v>0.7846153846153846</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="14"/>
+      <c r="H63" s="13">
+        <v>36853</v>
+      </c>
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63" s="12">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="K63" s="12">
+        <v>21</v>
+      </c>
+      <c r="L63">
+        <v>28</v>
+      </c>
+      <c r="M63" s="12">
+        <v>-7</v>
+      </c>
+      <c r="N63" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O63">
+        <v>49</v>
+      </c>
+      <c r="P63" s="12">
+        <v>16</v>
+      </c>
+      <c r="Q63" s="29">
+        <f t="shared" si="0"/>
+        <v>0.24615384615384617</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B64" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" t="s">
+        <v>114</v>
+      </c>
+      <c r="E64" t="s">
+        <v>115</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" s="14"/>
+      <c r="H64" s="1">
+        <v>22282</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" s="12">
+        <v>0</v>
+      </c>
+      <c r="K64" s="12">
+        <v>12</v>
+      </c>
+      <c r="L64">
+        <v>35</v>
+      </c>
+      <c r="M64">
+        <v>-23</v>
+      </c>
+      <c r="N64" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O64">
+        <v>63</v>
+      </c>
+      <c r="P64">
+        <v>63</v>
+      </c>
+      <c r="Q64" s="29">
+        <f t="shared" si="0"/>
+        <v>0.96923076923076923</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B65" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" s="14"/>
+      <c r="H65" s="13">
+        <v>27167</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65" s="12">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="K65" s="12">
+        <v>21</v>
+      </c>
+      <c r="L65">
+        <v>27</v>
+      </c>
+      <c r="M65" s="12">
+        <v>-6</v>
+      </c>
+      <c r="N65" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O65">
+        <v>48</v>
+      </c>
+      <c r="P65" s="12">
+        <v>32</v>
+      </c>
+      <c r="Q65" s="29">
+        <f t="shared" si="0"/>
+        <v>0.49230769230769234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B66" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="14"/>
+      <c r="H66" s="13">
+        <v>37393</v>
+      </c>
+      <c r="I66">
+        <v>5</v>
+      </c>
+      <c r="J66" s="12">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="K66" s="12">
+        <v>29</v>
+      </c>
+      <c r="L66">
+        <v>23</v>
+      </c>
+      <c r="M66" s="12">
+        <v>6</v>
+      </c>
+      <c r="N66" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O66">
+        <v>17</v>
+      </c>
+      <c r="P66" s="12">
+        <v>34</v>
+      </c>
+      <c r="Q66" s="29">
+        <f t="shared" si="0"/>
+        <v>0.52307692307692311</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C67" s="13"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="13"/>
+      <c r="L67" s="12"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C68" s="13"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="13"/>
+      <c r="L68" s="12"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C69" s="13"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="13"/>
+      <c r="L69" s="12"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C70" s="13"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="13"/>
+      <c r="L70" s="12"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C71" s="13"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="13"/>
+      <c r="L71" s="12"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C72" s="13"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="13"/>
+      <c r="L72" s="12"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C73" s="13"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="13"/>
+      <c r="L73" s="12"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C74" s="13"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="13"/>
+      <c r="L74" s="12"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C75" s="13"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="13"/>
+      <c r="L75" s="12"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C76" s="13"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="13"/>
+      <c r="L76" s="12"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C77" s="13"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="13"/>
+      <c r="L77" s="12"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C78" s="13"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="13"/>
+      <c r="L78" s="12"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C79" s="13"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="13"/>
+      <c r="L79" s="12"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C80" s="13"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="13"/>
+      <c r="L80" s="12"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C81" s="13"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="13"/>
+      <c r="L81" s="12"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L82" s="12"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L83" s="12"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L84" s="12"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L85" s="12"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L86" s="12"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L87" s="12"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L88" s="12"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L89" s="12"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L90" s="12"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L91" s="12"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L92" s="12"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L93" s="12"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L94" s="12"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L95" s="12"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L96" s="12"/>
+    </row>
+    <row r="97" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L97" s="12"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q1" xr:uid="{B10C7D3D-4D54-4F27-9A7F-0832BE065384}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2177,12 +5829,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF21137-9538-493F-9018-B15907AA0781}">
   <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15:L15"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2242,31 +5894,31 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="G2" s="12">
+        <v>26</v>
+      </c>
+      <c r="H2">
+        <v>25</v>
+      </c>
+      <c r="I2" s="12">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1</v>
-      </c>
-      <c r="G2" s="12">
-        <v>35</v>
-      </c>
-      <c r="H2">
-        <v>11</v>
-      </c>
-      <c r="I2" s="12">
-        <v>24</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>40</v>
@@ -2283,13 +5935,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -2301,13 +5953,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I3" s="12">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>40</v>
@@ -2324,31 +5976,31 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4" s="12">
-        <v>1</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="G4" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H4">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I4" s="12">
-        <v>18</v>
+        <v>-11</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>40</v>
@@ -2365,31 +6017,31 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
       <c r="F5" s="12">
-        <v>1</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="G5" s="12">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I5" s="12">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>40</v>
@@ -2406,31 +6058,31 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
       <c r="F6" s="12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G6" s="12">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I6" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>40</v>
@@ -2447,31 +6099,31 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7" s="12">
-        <v>0.85699999999999998</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="G7" s="12">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I7" s="12">
-        <v>19</v>
+        <v>-7</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>40</v>
@@ -2488,34 +6140,34 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F8" s="12">
-        <v>0.85699999999999998</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="G8" s="12">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I8" s="12">
-        <v>14</v>
+        <v>-11</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K8" s="1">
         <v>43778</v>
@@ -2529,31 +6181,31 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" s="12">
-        <v>0.85699999999999998</v>
+        <v>1</v>
       </c>
       <c r="G9" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I9" s="12">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>40</v>
@@ -2570,10 +6222,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>59</v>
@@ -2585,16 +6237,16 @@
         <v>6</v>
       </c>
       <c r="F10" s="12">
-        <v>0.75</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="G10" s="12">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H10">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I10" s="12">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>40</v>
@@ -2611,31 +6263,31 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11" s="12">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G11" s="12">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H11">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I11" s="12">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>40</v>
@@ -2652,31 +6304,31 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>97</v>
-      </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="12">
-        <v>0.71399999999999997</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="G12" s="12">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I12" s="12">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J12" s="13" t="s">
         <v>40</v>
@@ -2693,34 +6345,34 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F13" s="12">
-        <v>0.71399999999999997</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="G13" s="12">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I13" s="12">
-        <v>11</v>
+        <v>-20</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K13" s="1">
         <v>43778</v>
@@ -2734,13 +6386,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -2755,10 +6407,10 @@
         <v>27</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I14" s="12">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J14" s="13" t="s">
         <v>40</v>
@@ -2775,31 +6427,31 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" s="12">
-        <v>0.71399999999999997</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="G15" s="12">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H15">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I15" s="12">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>40</v>
@@ -2816,10 +6468,10 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>64</v>
@@ -2828,22 +6480,22 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F16" s="12">
-        <v>0.71399999999999997</v>
+        <v>0</v>
       </c>
       <c r="G16" s="12">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="H16">
-        <v>24</v>
-      </c>
-      <c r="I16" s="12">
-        <v>9</v>
+        <v>35</v>
+      </c>
+      <c r="I16">
+        <v>-25</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K16" s="1">
         <v>43778</v>
@@ -2857,31 +6509,31 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F17" s="12">
-        <v>0.71399999999999997</v>
+        <v>1</v>
       </c>
       <c r="G17" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I17" s="12">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>40</v>
@@ -2898,34 +6550,34 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="G18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
-      <c r="F18" s="12">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="G18" s="12">
+      <c r="H18">
         <v>29</v>
       </c>
-      <c r="H18">
-        <v>23</v>
-      </c>
       <c r="I18" s="12">
-        <v>6</v>
+        <v>-12</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K18" s="1">
         <v>43778</v>
@@ -2939,31 +6591,31 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F19" s="12">
-        <v>0.71399999999999997</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="G19" s="12">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H19">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I19" s="12">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>40</v>
@@ -3021,34 +6673,34 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F21" s="12">
-        <v>0.71399999999999997</v>
+        <v>0.25</v>
       </c>
       <c r="G21" s="12">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H21">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I21" s="12">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K21" s="1">
         <v>43778</v>
@@ -3062,31 +6714,31 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" s="12">
-        <v>0.625</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="G22" s="12">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H22">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I22" s="12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>40</v>
@@ -3103,31 +6755,31 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23" s="12">
-        <v>0.57099999999999995</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="G23" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H23">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I23" s="12">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>40</v>
@@ -3144,31 +6796,31 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" s="12">
-        <v>0.57099999999999995</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="G24" s="12">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I24" s="12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>40</v>
@@ -3185,31 +6837,31 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" s="12">
-        <v>0.57099999999999995</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="G25" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H25">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I25" s="12">
-        <v>6</v>
+        <v>-5</v>
       </c>
       <c r="J25" s="13" t="s">
         <v>40</v>
@@ -3226,22 +6878,22 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" s="12">
-        <v>0.57099999999999995</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="G26" s="12">
         <v>31</v>
@@ -3267,13 +6919,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
@@ -3285,13 +6937,13 @@
         <v>0.57099999999999995</v>
       </c>
       <c r="G27" s="12">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H27">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I27" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J27" s="13" t="s">
         <v>40</v>
@@ -3308,31 +6960,31 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
       </c>
       <c r="E28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28" s="12">
-        <v>0.57099999999999995</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="G28" s="12">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H28">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I28" s="12">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>40</v>
@@ -3349,31 +7001,31 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F29" s="12">
-        <v>0.57099999999999995</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="G29" s="12">
         <v>26</v>
       </c>
       <c r="H29">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I29" s="12">
-        <v>2</v>
+        <v>-6</v>
       </c>
       <c r="J29" s="13" t="s">
         <v>40</v>
@@ -3390,31 +7042,31 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" s="12">
-        <v>0.57099999999999995</v>
+        <v>0.375</v>
       </c>
       <c r="G30" s="12">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H30">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I30" s="12">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="J30" s="13" t="s">
         <v>40</v>
@@ -3431,31 +7083,31 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F31" s="12">
-        <v>0.57099999999999995</v>
+        <v>1</v>
       </c>
       <c r="G31" s="12">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H31">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I31" s="12">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J31" s="13" t="s">
         <v>40</v>
@@ -3472,31 +7124,31 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F32" s="12">
-        <v>0.57099999999999995</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="G32" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H32">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I32" s="12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J32" s="13" t="s">
         <v>40</v>
@@ -3513,31 +7165,31 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" s="12">
-        <v>0.57099999999999995</v>
+        <v>0.375</v>
       </c>
       <c r="G33" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H33">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I33" s="12">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="J33" s="13" t="s">
         <v>40</v>
@@ -3554,31 +7206,31 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34" s="12">
-        <v>0.42899999999999999</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="G34" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H34">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I34" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J34" s="13" t="s">
         <v>40</v>
@@ -3595,31 +7247,31 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F35" s="12">
-        <v>0.42899999999999999</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="G35" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H35">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I35" s="12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J35" s="13" t="s">
         <v>40</v>
@@ -3636,31 +7288,31 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F36" s="12">
-        <v>0.42899999999999999</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="G36" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H36">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I36" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J36" s="13" t="s">
         <v>40</v>
@@ -3677,31 +7329,31 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F37" s="12">
-        <v>0.42899999999999999</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="G37" s="12">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H37">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I37" s="12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J37" s="13" t="s">
         <v>40</v>
@@ -3718,10 +7370,10 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
         <v>63</v>
@@ -3730,22 +7382,22 @@
         <v>5</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F38" s="12">
-        <v>0.42899999999999999</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="G38" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H38">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I38" s="12">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K38" s="1">
         <v>43778</v>
@@ -3759,31 +7411,31 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F39" s="12">
-        <v>0.42899999999999999</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="G39" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H39">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I39" s="12">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="J39" s="13" t="s">
         <v>40</v>
@@ -3800,34 +7452,34 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F40" s="12">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="G40" s="12">
-        <v>24</v>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>7</v>
       </c>
       <c r="H40">
-        <v>27</v>
-      </c>
-      <c r="I40" s="12">
-        <v>-3</v>
+        <v>35</v>
+      </c>
+      <c r="I40">
+        <v>-28</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K40" s="1">
         <v>43778</v>
@@ -3841,31 +7493,31 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F41" s="12">
-        <v>0.42899999999999999</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="G41" s="12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H41">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I41" s="12">
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="J41" s="13" t="s">
         <v>40</v>
@@ -3882,13 +7534,13 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -3900,13 +7552,13 @@
         <v>0.42899999999999999</v>
       </c>
       <c r="G42" s="12">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H42">
         <v>27</v>
       </c>
       <c r="I42" s="12">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="J42" s="13" t="s">
         <v>40</v>
@@ -3923,34 +7575,34 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F43" s="12">
-        <v>0.42899999999999999</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="G43" s="12">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H43">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I43" s="12">
-        <v>-5</v>
+        <v>-19</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K43" s="1">
         <v>43778</v>
@@ -3964,31 +7616,31 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F44" s="12">
-        <v>0.42899999999999999</v>
+        <v>0.625</v>
       </c>
       <c r="G44" s="12">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H44">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I44" s="12">
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="J44" s="13" t="s">
         <v>40</v>
@@ -4005,13 +7657,13 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
@@ -4020,16 +7672,16 @@
         <v>3</v>
       </c>
       <c r="F45" s="12">
-        <v>0.375</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="G45" s="12">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H45">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I45" s="12">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="J45" s="13" t="s">
         <v>40</v>
@@ -4046,31 +7698,31 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F46" s="12">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="G46" s="12">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H46">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I46" s="12">
-        <v>-7</v>
+        <v>8</v>
       </c>
       <c r="J46" s="13" t="s">
         <v>40</v>
@@ -4087,34 +7739,34 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" s="12">
-        <v>0.28599999999999998</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="G47" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H47">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I47" s="12">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K47" s="1">
         <v>43778</v>
@@ -4128,31 +7780,31 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F48" s="12">
-        <v>0.28599999999999998</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="G48" s="12">
         <v>26</v>
       </c>
       <c r="H48">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I48" s="12">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J48" s="13" t="s">
         <v>40</v>
@@ -4169,34 +7821,34 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" s="12">
-        <v>0.28599999999999998</v>
+        <v>0.125</v>
       </c>
       <c r="G49" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H49">
-        <v>27</v>
-      </c>
-      <c r="I49" s="12">
-        <v>-6</v>
+        <v>39</v>
+      </c>
+      <c r="I49">
+        <v>-10</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K49" s="1">
         <v>43778</v>
@@ -4210,10 +7862,10 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C50" t="s">
         <v>70</v>
@@ -4222,19 +7874,19 @@
         <v>5</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" s="12">
-        <v>0.28599999999999998</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="G50" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H50">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I50" s="12">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="J50" s="13" t="s">
         <v>40</v>
@@ -4251,31 +7903,31 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" s="12">
-        <v>0.28599999999999998</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="G51" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H51">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I51" s="12">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="J51" s="13" t="s">
         <v>40</v>
@@ -4292,10 +7944,10 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -4304,19 +7956,19 @@
         <v>5</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F52" s="12">
-        <v>0.28599999999999998</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="G52" s="12">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H52">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I52" s="12">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="J52" s="13" t="s">
         <v>40</v>
@@ -4333,31 +7985,31 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D53" t="s">
         <v>5</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" s="12">
-        <v>0.28599999999999998</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="G53" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H53">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I53" s="12">
-        <v>-11</v>
+        <v>6</v>
       </c>
       <c r="J53" s="13" t="s">
         <v>40</v>
@@ -4374,34 +8026,34 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F54" s="12">
-        <v>0.28599999999999998</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="G54" s="12">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H54">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I54" s="12">
-        <v>-11</v>
+        <v>13</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K54" s="1">
         <v>43778</v>
@@ -4415,34 +8067,34 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C55" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55" s="12">
-        <v>0.28599999999999998</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="G55" s="12">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H55">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I55" s="12">
-        <v>-12</v>
+        <v>-3</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K55" s="1">
         <v>43778</v>
@@ -4456,10 +8108,10 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C56" t="s">
         <v>62</v>
@@ -4468,22 +8120,22 @@
         <v>5</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F56" s="12">
-        <v>0.25</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="G56" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H56">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I56" s="12">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K56" s="1">
         <v>43778</v>
@@ -4497,13 +8149,13 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C57" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
@@ -4512,19 +8164,19 @@
         <v>2</v>
       </c>
       <c r="F57" s="12">
-        <v>0.25</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="G57" s="12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H57">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I57" s="12">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="J57" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K57" s="1">
         <v>43778</v>
@@ -4538,34 +8190,34 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F58" s="12">
-        <v>0.14299999999999999</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="G58" s="12">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H58">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I58" s="12">
-        <v>-5</v>
+        <v>11</v>
       </c>
       <c r="J58" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K58" s="1">
         <v>43778</v>
@@ -4579,31 +8231,31 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C59" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" s="12">
-        <v>0.14299999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="G59" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H59">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I59" s="12">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="J59" s="13" t="s">
         <v>41</v>
@@ -4620,34 +8272,34 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F60" s="12">
-        <v>0.14299999999999999</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="G60" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H60">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I60" s="12">
-        <v>-15</v>
+        <v>3</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K60" s="1">
         <v>43778</v>
@@ -4661,13 +8313,13 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C61" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
@@ -4679,13 +8331,13 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="G61" s="12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H61">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I61" s="12">
-        <v>-19</v>
+        <v>-15</v>
       </c>
       <c r="J61" s="13" t="s">
         <v>41</v>
@@ -4702,34 +8354,34 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B62" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" s="12">
-        <v>0.14299999999999999</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="G62" s="12">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H62">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I62" s="12">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K62" s="1">
         <v>43778</v>
@@ -4743,34 +8395,34 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D63" t="s">
         <v>5</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" s="12">
-        <v>0.125</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="G63" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H63">
-        <v>39</v>
-      </c>
-      <c r="I63">
-        <v>-10</v>
+        <v>28</v>
+      </c>
+      <c r="I63" s="12">
+        <v>-7</v>
       </c>
       <c r="J63" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K63" s="1">
         <v>43778</v>
@@ -4825,34 +8477,34 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="C65" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D65" t="s">
         <v>5</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F65" s="12">
-        <v>0</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="G65" s="12">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H65">
-        <v>35</v>
-      </c>
-      <c r="I65">
-        <v>-25</v>
+        <v>27</v>
+      </c>
+      <c r="I65" s="12">
+        <v>-6</v>
       </c>
       <c r="J65" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K65" s="1">
         <v>43778</v>
@@ -4866,34 +8518,34 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
+        <v>17</v>
+      </c>
+      <c r="B66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" t="s">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>116</v>
-      </c>
-      <c r="C66" t="s">
-        <v>117</v>
-      </c>
       <c r="D66" t="s">
         <v>5</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F66" s="12">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>7</v>
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="G66" s="12">
+        <v>29</v>
       </c>
       <c r="H66">
-        <v>35</v>
-      </c>
-      <c r="I66">
-        <v>-28</v>
+        <v>23</v>
+      </c>
+      <c r="I66" s="12">
+        <v>6</v>
       </c>
       <c r="J66" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K66" s="1">
         <v>43778</v>
@@ -5046,7 +8698,7 @@
   </sheetData>
   <autoFilter ref="A1:M1" xr:uid="{8EF21137-9538-493F-9018-B15907AA0781}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M66">
-      <sortCondition ref="A1"/>
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5055,12 +8707,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE8EC13-5CBE-4DC4-B9E2-75073FDF3DC9}">
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:G13"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5101,19 +8753,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="13">
-        <v>33595</v>
+        <v>28313</v>
       </c>
       <c r="F2" s="1">
         <v>43778</v>
@@ -5127,19 +8779,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="13">
-        <v>37031</v>
+        <v>36099</v>
       </c>
       <c r="F3" s="1">
         <v>43778</v>
@@ -5153,19 +8805,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="13">
-        <v>36099</v>
+        <v>37753</v>
       </c>
       <c r="F4" s="1">
         <v>43778</v>
@@ -5179,19 +8831,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="13">
-        <v>34315</v>
+        <v>35185</v>
       </c>
       <c r="F5" s="1">
         <v>43778</v>
@@ -5205,19 +8857,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="13">
-        <v>36324</v>
+        <v>37031</v>
       </c>
       <c r="F6" s="1">
         <v>43778</v>
@@ -5231,19 +8883,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="13">
-        <v>35450</v>
+        <v>28223</v>
       </c>
       <c r="F7" s="1">
         <v>43778</v>
@@ -5257,19 +8909,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="13">
-        <v>37523</v>
+        <v>30117</v>
       </c>
       <c r="F8" s="1">
         <v>43778</v>
@@ -5283,19 +8935,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="13">
-        <v>37683</v>
+        <v>33595</v>
       </c>
       <c r="F9" s="1">
         <v>43778</v>
@@ -5335,19 +8987,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="13">
-        <v>33414</v>
+        <v>32654</v>
       </c>
       <c r="F11" s="1">
         <v>43778</v>
@@ -5361,19 +9013,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="C12" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="13">
-        <v>27427</v>
+        <v>34315</v>
       </c>
       <c r="F12" s="1">
         <v>43778</v>
@@ -5387,19 +9039,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="13">
-        <v>36441</v>
+        <v>34757</v>
       </c>
       <c r="F13" s="1">
         <v>43778</v>
@@ -5413,19 +9065,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="13">
-        <v>36219</v>
+        <v>36046</v>
       </c>
       <c r="F14" s="1">
         <v>43778</v>
@@ -5439,45 +9091,45 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="13">
+        <v>37694</v>
+      </c>
+      <c r="F15" s="1">
+        <v>43778</v>
+      </c>
+      <c r="G15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>64</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="13">
-        <v>26996</v>
-      </c>
-      <c r="F15" s="1">
-        <v>43778</v>
-      </c>
-      <c r="G15" t="s">
-        <v>118</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
-        <v>15</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>70</v>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="13">
-        <v>28313</v>
+      <c r="E16" s="1">
+        <v>33239</v>
       </c>
       <c r="F16" s="1">
         <v>43778</v>
@@ -5491,19 +9143,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="13">
-        <v>36853</v>
+        <v>33673</v>
       </c>
       <c r="F17" s="1">
         <v>43778</v>
@@ -5517,19 +9169,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="13">
-        <v>32654</v>
+        <v>31104</v>
       </c>
       <c r="F18" s="1">
         <v>43778</v>
@@ -5543,19 +9195,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="13">
-        <v>33673</v>
+        <v>21027</v>
       </c>
       <c r="F19" s="1">
         <v>43778</v>
@@ -5569,19 +9221,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="13">
-        <v>36950</v>
+        <v>26426</v>
       </c>
       <c r="F20" s="1">
         <v>43778</v>
@@ -5595,19 +9247,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="13">
-        <v>31158</v>
+        <v>24801</v>
       </c>
       <c r="F21" s="1">
         <v>43778</v>
@@ -5621,19 +9273,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E22" s="13">
-        <v>26426</v>
+        <v>26996</v>
       </c>
       <c r="F22" s="1">
         <v>43778</v>
@@ -5647,19 +9299,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="13">
-        <v>36046</v>
+        <v>37050</v>
       </c>
       <c r="F23" s="1">
         <v>43778</v>
@@ -5673,19 +9325,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="13">
-        <v>34789</v>
+        <v>36441</v>
       </c>
       <c r="F24" s="1">
         <v>43778</v>
@@ -5699,19 +9351,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="13">
-        <v>34058</v>
+        <v>29600</v>
       </c>
       <c r="F25" s="1">
         <v>43778</v>
@@ -5725,19 +9377,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="13">
-        <v>35185</v>
+        <v>30843</v>
       </c>
       <c r="F26" s="1">
         <v>43778</v>
@@ -5777,19 +9429,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E28" s="13">
-        <v>33420</v>
+        <v>37523</v>
       </c>
       <c r="F28" s="1">
         <v>43778</v>
@@ -5803,19 +9455,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E29" s="13">
-        <v>37694</v>
+        <v>37388</v>
       </c>
       <c r="F29" s="1">
         <v>43778</v>
@@ -5829,19 +9481,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="13">
-        <v>27395</v>
+        <v>37622</v>
       </c>
       <c r="F30" s="1">
         <v>43778</v>
@@ -5855,19 +9507,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="13">
-        <v>33970</v>
+        <v>36324</v>
       </c>
       <c r="F31" s="1">
         <v>43778</v>
@@ -5881,19 +9533,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="13">
-        <v>37388</v>
+        <v>35450</v>
       </c>
       <c r="F32" s="1">
         <v>43778</v>
@@ -5907,19 +9559,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="13">
-        <v>27167</v>
+        <v>33970</v>
       </c>
       <c r="F33" s="1">
         <v>43778</v>
@@ -5933,19 +9585,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E34" s="13">
-        <v>32982</v>
+        <v>37683</v>
       </c>
       <c r="F34" s="1">
         <v>43778</v>
@@ -5959,19 +9611,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E35" s="13">
-        <v>28784</v>
+        <v>33414</v>
       </c>
       <c r="F35" s="1">
         <v>43778</v>
@@ -5988,16 +9640,16 @@
         <v>34</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E36" s="13">
-        <v>37393</v>
+        <v>28784</v>
       </c>
       <c r="F36" s="1">
         <v>43778</v>
@@ -6011,19 +9663,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E37" s="13">
-        <v>36047</v>
+        <v>31158</v>
       </c>
       <c r="F37" s="1">
         <v>43778</v>
@@ -6037,19 +9689,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E38" s="13">
-        <v>36128</v>
+        <v>30053</v>
       </c>
       <c r="F38" s="1">
         <v>43778</v>
@@ -6063,19 +9715,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E39" s="13">
-        <v>37101</v>
+        <v>32982</v>
       </c>
       <c r="F39" s="1">
         <v>43778</v>
@@ -6088,20 +9740,20 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="12">
-        <v>39</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>67</v>
+      <c r="A40">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" t="s">
+        <v>117</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E40" s="13">
-        <v>30812</v>
+        <v>38353</v>
       </c>
       <c r="F40" s="1">
         <v>43778</v>
@@ -6115,19 +9767,19 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E41" s="13">
-        <v>30843</v>
+        <v>34789</v>
       </c>
       <c r="F41" s="1">
         <v>43778</v>
@@ -6167,19 +9819,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E43" s="13">
-        <v>36061</v>
+        <v>18372</v>
       </c>
       <c r="F43" s="1">
         <v>43778</v>
@@ -6193,19 +9845,19 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E44" s="13">
-        <v>24473</v>
+        <v>36047</v>
       </c>
       <c r="F44" s="1">
         <v>43778</v>
@@ -6219,19 +9871,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E45" s="13">
-        <v>21027</v>
+        <v>30881</v>
       </c>
       <c r="F45" s="1">
         <v>43778</v>
@@ -6245,19 +9897,19 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E46" s="13">
-        <v>30881</v>
+        <v>36950</v>
       </c>
       <c r="F46" s="1">
         <v>43778</v>
@@ -6271,19 +9923,19 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E47" s="13">
-        <v>29600</v>
+        <v>34479</v>
       </c>
       <c r="F47" s="1">
         <v>43778</v>
@@ -6297,19 +9949,19 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E48" s="13">
-        <v>28223</v>
+        <v>33420</v>
       </c>
       <c r="F48" s="1">
         <v>43778</v>
@@ -6322,20 +9974,20 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="12">
-        <v>48</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>61</v>
+      <c r="A49">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>72</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="13">
-        <v>37622</v>
+      <c r="E49" s="1">
+        <v>34537</v>
       </c>
       <c r="F49" s="1">
         <v>43778</v>
@@ -6349,19 +10001,19 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="12">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E50" s="13">
-        <v>37050</v>
+        <v>27395</v>
       </c>
       <c r="F50" s="1">
         <v>43778</v>
@@ -6375,19 +10027,19 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="12">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E51" s="13">
-        <v>34163</v>
+        <v>36061</v>
       </c>
       <c r="F51" s="1">
         <v>43778</v>
@@ -6401,10 +10053,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>59</v>
@@ -6413,7 +10065,7 @@
         <v>5</v>
       </c>
       <c r="E52" s="13">
-        <v>22885</v>
+        <v>37101</v>
       </c>
       <c r="F52" s="1">
         <v>43778</v>
@@ -6427,19 +10079,19 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E53" s="13">
-        <v>37753</v>
+        <v>30812</v>
       </c>
       <c r="F53" s="1">
         <v>43778</v>
@@ -6453,19 +10105,19 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E54" s="13">
-        <v>30117</v>
+        <v>36219</v>
       </c>
       <c r="F54" s="1">
         <v>43778</v>
@@ -6479,19 +10131,19 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E55" s="13">
-        <v>31104</v>
+        <v>24473</v>
       </c>
       <c r="F55" s="1">
         <v>43778</v>
@@ -6505,10 +10157,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>62</v>
@@ -6517,7 +10169,7 @@
         <v>5</v>
       </c>
       <c r="E56" s="13">
-        <v>37987</v>
+        <v>36128</v>
       </c>
       <c r="F56" s="1">
         <v>43778</v>
@@ -6531,19 +10183,19 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="12">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E57" s="13">
-        <v>24801</v>
+        <v>34163</v>
       </c>
       <c r="F57" s="1">
         <v>43778</v>
@@ -6557,19 +10209,19 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="12">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D58" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E58" s="13">
-        <v>30053</v>
+        <v>27427</v>
       </c>
       <c r="F58" s="1">
         <v>43778</v>
@@ -6583,19 +10235,19 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="12">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E59" s="13">
-        <v>34479</v>
+        <v>37987</v>
       </c>
       <c r="F59" s="1">
         <v>43778</v>
@@ -6609,19 +10261,19 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E60" s="13">
-        <v>38353</v>
+        <v>34058</v>
       </c>
       <c r="F60" s="1">
         <v>43778</v>
@@ -6635,19 +10287,19 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D61" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E61" s="13">
-        <v>18372</v>
+        <v>38353</v>
       </c>
       <c r="F61" s="1">
         <v>43778</v>
@@ -6661,19 +10313,19 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E62" s="13">
-        <v>34757</v>
+        <v>22885</v>
       </c>
       <c r="F62" s="1">
         <v>43778</v>
@@ -6686,20 +10338,20 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63" t="s">
-        <v>72</v>
+      <c r="A63" s="12">
+        <v>16</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="1">
-        <v>34537</v>
+      <c r="E63" s="13">
+        <v>36853</v>
       </c>
       <c r="F63" s="1">
         <v>43778</v>
@@ -6738,20 +10390,20 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" t="s">
-        <v>64</v>
+      <c r="A65" s="12">
+        <v>32</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="D65" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="1">
-        <v>33239</v>
+      <c r="E65" s="13">
+        <v>27167</v>
       </c>
       <c r="F65" s="1">
         <v>43778</v>
@@ -6764,20 +10416,20 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="A66" s="12">
+        <v>34</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>116</v>
-      </c>
-      <c r="C66" t="s">
-        <v>117</v>
-      </c>
       <c r="D66" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E66" s="13">
-        <v>38353</v>
+        <v>37393</v>
       </c>
       <c r="F66" s="1">
         <v>43778</v>
@@ -6881,8 +10533,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{6BE8EC13-5CBE-4DC4-B9E2-75073FDF3DC9}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H62">
-      <sortCondition ref="A1"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H66">
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6891,7 +10543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FC78F5-5CF3-4822-9F05-040CD542D014}">
   <dimension ref="A1:K496"/>
   <sheetViews>
@@ -23600,11 +27252,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24776AA4-D2C9-4979-A33A-19FCB0421740}">
   <dimension ref="A1:K127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
